--- a/CAS Datasets.xlsx
+++ b/CAS Datasets.xlsx
@@ -5,19 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\home\git\other\pa-seminar-2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C92C4F6-2A97-4DBD-B9D1-A859A47A15BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F45C515-00C2-4197-AAF9-A6DFD5A186A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F410664B-6EEA-4976-A92D-90E19E236AC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$192</definedName>
   </definedNames>
@@ -41,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="269">
   <si>
     <t>Davis</t>
   </si>
@@ -635,6 +632,219 @@
   </si>
   <si>
     <t>NA Proportion</t>
+  </si>
+  <si>
+    <t>European surrender dataset from the direct channel</t>
+  </si>
+  <si>
+    <t>Two Brazilian datasets for vehicle insurance</t>
+  </si>
+  <si>
+    <t>French Motor Third-Part Liability datasets</t>
+  </si>
+  <si>
+    <t>Portfolio Mortality and Disability Tables</t>
+  </si>
+  <si>
+    <t>French individual claim settlements</t>
+  </si>
+  <si>
+    <t>French Motor Third-Part Liability datasets used for 100 percent Data Science game</t>
+  </si>
+  <si>
+    <t>French claims for private motor</t>
+  </si>
+  <si>
+    <t>TPL claim number dataset</t>
+  </si>
+  <si>
+    <t>Norwegian fire insurance dataset</t>
+  </si>
+  <si>
+    <t>French Motor Personal Line datasets</t>
+  </si>
+  <si>
+    <t>Automobile claim datasets in Australia</t>
+  </si>
+  <si>
+    <t>Swedish Motorcycle Insurance dataset</t>
+  </si>
+  <si>
+    <t>Insurance Company Benchmark</t>
+  </si>
+  <si>
+    <t>United States lapse dataset from tied-agent channel</t>
+  </si>
+  <si>
+    <t>European lapse dataset from the direct channel</t>
+  </si>
+  <si>
+    <t>Automobile bodily injury claim dataset in Australia</t>
+  </si>
+  <si>
+    <t>Earthquake list</t>
+  </si>
+  <si>
+    <t>Singapore Automobile claim count dataset</t>
+  </si>
+  <si>
+    <t>SOA Group Medical Insurance claim dataset</t>
+  </si>
+  <si>
+    <t>Canadian life insurance</t>
+  </si>
+  <si>
+    <t>French aggregate claim numbers</t>
+  </si>
+  <si>
+    <t>French commercial fire losses</t>
+  </si>
+  <si>
+    <t>US Private Auto Claims</t>
+  </si>
+  <si>
+    <t>Brazilian geospatial dataset for municipalities</t>
+  </si>
+  <si>
+    <t>Space dataset</t>
+  </si>
+  <si>
+    <t>Some French marine losses</t>
+  </si>
+  <si>
+    <t>Australian Market - non-life insurance (company, state, public level)</t>
+  </si>
+  <si>
+    <t>Foreign exchange rate between USD and GBP</t>
+  </si>
+  <si>
+    <t>German Credit dataset</t>
+  </si>
+  <si>
+    <t>Yield curve data spot rate, AAA-rated bonds, maturities from 3 months to 30 years</t>
+  </si>
+  <si>
+    <t>French business interruption losses</t>
+  </si>
+  <si>
+    <t>Hurricane history: Per Storm Maximum Wind Speeds (North Atlantic)</t>
+  </si>
+  <si>
+    <t>Swedish Motor Insurance dataset</t>
+  </si>
+  <si>
+    <t>French claim settlements</t>
+  </si>
+  <si>
+    <t>French Mortality Tables</t>
+  </si>
+  <si>
+    <t>Danish reinsurance claim dataset</t>
+  </si>
+  <si>
+    <t>Swedish Buss Insurance dataset</t>
+  </si>
+  <si>
+    <t>Automobile bodily injury claim dataset</t>
+  </si>
+  <si>
+    <t>Brazilian Automobile Collision Claims</t>
+  </si>
+  <si>
+    <t>US Term Life insurance</t>
+  </si>
+  <si>
+    <t>General Liability Claims</t>
+  </si>
+  <si>
+    <t>US expense dataset</t>
+  </si>
+  <si>
+    <t>AON Re Belgian dataset</t>
+  </si>
+  <si>
+    <t>Large commercial risks in Asia-Pacific</t>
+  </si>
+  <si>
+    <t>Property and casualty insurance demand</t>
+  </si>
+  <si>
+    <t>US workers compensation datasets</t>
+  </si>
+  <si>
+    <t>Federal Reserve interest rates</t>
+  </si>
+  <si>
+    <t>Normalized Hurricane Damages</t>
+  </si>
+  <si>
+    <t>French Disability Tables and Probabilities</t>
+  </si>
+  <si>
+    <t>Australian catastrophe historic</t>
+  </si>
+  <si>
+    <t>New Zealand catastrophe historic</t>
+  </si>
+  <si>
+    <t>Descriptive statistics of aggregate claims and premiums for the 41 Brazilian regions</t>
+  </si>
+  <si>
+    <t>Australian Market - non-life insurance (aggregate level)</t>
+  </si>
+  <si>
+    <t>Massachusetts Automobile bodily injury claim datasets</t>
+  </si>
+  <si>
+    <t>Davis dataset</t>
+  </si>
+  <si>
+    <t>Italian MTPL cost</t>
+  </si>
+  <si>
+    <t>Secura Re Belgian dataset</t>
+  </si>
+  <si>
+    <t>UK Car Insurance Claims for 1975</t>
+  </si>
+  <si>
+    <t>US Medical claim incremental triangles</t>
+  </si>
+  <si>
+    <t>Australian Market - non-life insurance (LLoyds insurance business)</t>
+  </si>
+  <si>
+    <t>Norberg's credibility dataset</t>
+  </si>
+  <si>
+    <t>US Automobile triangles</t>
+  </si>
+  <si>
+    <t>US general liability triangles</t>
+  </si>
+  <si>
+    <t>UK Automobile Collision Claims</t>
+  </si>
+  <si>
+    <t>A simulated with linear model factor</t>
+  </si>
+  <si>
+    <t>Australian private motor triangles</t>
+  </si>
+  <si>
+    <t>French geospatial dataset for departments</t>
+  </si>
+  <si>
+    <t>Singapore general liability triangles</t>
+  </si>
+  <si>
+    <t>California earthquake loss ratios</t>
+  </si>
+  <si>
+    <t>Normalized Hurricane Damages in US between 1949 and 1980</t>
+  </si>
+  <si>
+    <t>Warranty Automobile claims</t>
   </si>
 </sst>
 </file>
@@ -642,7 +852,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -708,7 +918,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -724,1644 +934,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>Davis</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>Davis dataset</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>ECBYieldCurve</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>Yield curve data spot rate, AAA-rated bonds, maturities from 3 months to 30 years</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>FedYieldCurve</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>Federal Reserve interest rates</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>ICB1</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>Insurance Company Benchmark</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>ICB2</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>Insurance Company Benchmark</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Norberg</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>Norberg's credibility dataset</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>PnCdemand</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>Property and casualty insurance demand</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>SOAGMI</v>
-          </cell>
-          <cell r="B8" t="str">
-            <v>SOA Group Medical Insurance claim dataset</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>asiacomrisk</v>
-          </cell>
-          <cell r="B9" t="str">
-            <v>Large commercial risks in Asia-Pacific</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>ausMTPL8486</v>
-          </cell>
-          <cell r="B10" t="str">
-            <v>Automobile claim datasets in Australia</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>ausNLHYCapAdeq</v>
-          </cell>
-          <cell r="B11" t="str">
-            <v>Australian Market - non-life insurance (aggregate level)</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>ausNLHYCapAdeqByComp</v>
-          </cell>
-          <cell r="B12" t="str">
-            <v>Australian Market - non-life insurance (company, state, public level)</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>ausNLHYClaimByState</v>
-          </cell>
-          <cell r="B13" t="str">
-            <v>Australian Market - non-life insurance (company, state, public level)</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>ausNLHYFinPerf</v>
-          </cell>
-          <cell r="B14" t="str">
-            <v>Australian Market - non-life insurance (aggregate level)</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>ausNLHYFinPerfByComp</v>
-          </cell>
-          <cell r="B15" t="str">
-            <v>Australian Market - non-life insurance (company, state, public level)</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>ausNLHYFinPerfPublic</v>
-          </cell>
-          <cell r="B16" t="str">
-            <v>Australian Market - non-life insurance (company, state, public level)</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>ausNLHYFinPos</v>
-          </cell>
-          <cell r="B17" t="str">
-            <v>Australian Market - non-life insurance (aggregate level)</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>ausNLHYFinPosByComp</v>
-          </cell>
-          <cell r="B18" t="str">
-            <v>Australian Market - non-life insurance (company, state, public level)</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>ausNLHYFinPosPublic</v>
-          </cell>
-          <cell r="B19" t="str">
-            <v>Australian Market - non-life insurance (company, state, public level)</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>ausNLHYLiability</v>
-          </cell>
-          <cell r="B20" t="str">
-            <v>Australian Market - non-life insurance (aggregate level)</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>ausNLHYLloydAsset</v>
-          </cell>
-          <cell r="B21" t="str">
-            <v>Australian Market - non-life insurance (LLoyds insurance business)</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>ausNLHYLloydGPI</v>
-          </cell>
-          <cell r="B22" t="str">
-            <v>Australian Market - non-life insurance (LLoyds insurance business)</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>ausNLHYLloydUWAcc</v>
-          </cell>
-          <cell r="B23" t="str">
-            <v>Australian Market - non-life insurance (LLoyds insurance business)</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>ausNLHYLloydUWRes</v>
-          </cell>
-          <cell r="B24" t="str">
-            <v>Australian Market - non-life insurance (LLoyds insurance business)</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>ausNLHYOffProf</v>
-          </cell>
-          <cell r="B25" t="str">
-            <v>Australian Market - non-life insurance (aggregate level)</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>ausNLHYOpIncExp</v>
-          </cell>
-          <cell r="B26" t="str">
-            <v>Australian Market - non-life insurance (aggregate level)</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>ausNLHYOpIncExpPublic</v>
-          </cell>
-          <cell r="B27" t="str">
-            <v>Australian Market - non-life insurance (company, state, public level)</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>ausNLHYPremByState</v>
-          </cell>
-          <cell r="B28" t="str">
-            <v>Australian Market - non-life insurance (company, state, public level)</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>ausNLHYPremClaim</v>
-          </cell>
-          <cell r="B29" t="str">
-            <v>Australian Market - non-life insurance (aggregate level)</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>ausNLHYPremClaimPublic</v>
-          </cell>
-          <cell r="B30" t="str">
-            <v>Australian Market - non-life insurance (company, state, public level)</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>ausNLHYPrivInsur</v>
-          </cell>
-          <cell r="B31" t="str">
-            <v>Australian Market - non-life insurance (company, state, public level)</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>ausNLHYPubInsur</v>
-          </cell>
-          <cell r="B32" t="str">
-            <v>Australian Market - non-life insurance (company, state, public level)</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>ausNLHYRecAASB</v>
-          </cell>
-          <cell r="B33" t="str">
-            <v>Australian Market - non-life insurance (aggregate level)</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>ausNLHYReserve</v>
-          </cell>
-          <cell r="B34" t="str">
-            <v>Australian Market - non-life insurance (aggregate level)</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>ausNSWdeath02</v>
-          </cell>
-          <cell r="B35" t="str">
-            <v>Australian Statistics - New South Wales in 2004</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>ausNSWdriver04</v>
-          </cell>
-          <cell r="B36" t="str">
-            <v>Australian Statistics - New South Wales in 2004</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>ausautoBI8999</v>
-          </cell>
-          <cell r="B37" t="str">
-            <v>Automobile bodily injury claim dataset in Australia</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38" t="str">
-            <v>auscathist</v>
-          </cell>
-          <cell r="B38" t="str">
-            <v>Australian catastrophe historic</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39" t="str">
-            <v>ausprivauto0405</v>
-          </cell>
-          <cell r="B39" t="str">
-            <v>Automobile claim datasets in Australia</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40" t="str">
-            <v>ausprivautolong</v>
-          </cell>
-          <cell r="B40" t="str">
-            <v>Automobile claim datasets in Australia</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41" t="str">
-            <v>austri1autoBI7895</v>
-          </cell>
-          <cell r="B41" t="str">
-            <v>Australian private motor triangles</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42" t="str">
-            <v>austri2auto</v>
-          </cell>
-          <cell r="B42" t="str">
-            <v>Australian private motor triangles</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43" t="str">
-            <v>beaonre</v>
-          </cell>
-          <cell r="B43" t="str">
-            <v>AON Re Belgian dataset</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44" t="str">
-            <v>besecura</v>
-          </cell>
-          <cell r="B44" t="str">
-            <v>Secura Re Belgian dataset</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45" t="str">
-            <v>braggclaim</v>
-          </cell>
-          <cell r="B45" t="str">
-            <v>Descriptive statistics of aggregate claims and premiums for the 41 Brazilian regions</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46" t="str">
-            <v>braggprem</v>
-          </cell>
-          <cell r="B46" t="str">
-            <v>Descriptive statistics of aggregate claims and premiums for the 41 Brazilian regions</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47" t="str">
-            <v>brautocoll</v>
-          </cell>
-          <cell r="B47" t="str">
-            <v>Brazilian Automobile Collision Claims</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48" t="str">
-            <v>brgeomunic</v>
-          </cell>
-          <cell r="B48" t="str">
-            <v>Brazilian geospatial dataset for municipalities</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49" t="str">
-            <v>brgeomunicins</v>
-          </cell>
-          <cell r="B49" t="str">
-            <v>Brazilian geospatial dataset for municipalities</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50" t="str">
-            <v>brvehins1a</v>
-          </cell>
-          <cell r="B50" t="str">
-            <v>Two Brazilian datasets for vehicle insurance</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51" t="str">
-            <v>brvehins1b</v>
-          </cell>
-          <cell r="B51" t="str">
-            <v>Two Brazilian datasets for vehicle insurance</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52" t="str">
-            <v>brvehins1c</v>
-          </cell>
-          <cell r="B52" t="str">
-            <v>Two Brazilian datasets for vehicle insurance</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53" t="str">
-            <v>brvehins1d</v>
-          </cell>
-          <cell r="B53" t="str">
-            <v>Two Brazilian datasets for vehicle insurance</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54" t="str">
-            <v>brvehins1e</v>
-          </cell>
-          <cell r="B54" t="str">
-            <v>Two Brazilian datasets for vehicle insurance</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55" t="str">
-            <v>brvehins2a</v>
-          </cell>
-          <cell r="B55" t="str">
-            <v>Two Brazilian datasets for vehicle insurance</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56" t="str">
-            <v>brvehins2b</v>
-          </cell>
-          <cell r="B56" t="str">
-            <v>Two Brazilian datasets for vehicle insurance</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57" t="str">
-            <v>brvehins2c</v>
-          </cell>
-          <cell r="B57" t="str">
-            <v>Two Brazilian datasets for vehicle insurance</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58" t="str">
-            <v>brvehins2d</v>
-          </cell>
-          <cell r="B58" t="str">
-            <v>Two Brazilian datasets for vehicle insurance</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59" t="str">
-            <v>canlifins</v>
-          </cell>
-          <cell r="B59" t="str">
-            <v>Canadian life insurance</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60" t="str">
-            <v>credit</v>
-          </cell>
-          <cell r="B60" t="str">
-            <v>German Credit dataset</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61" t="str">
-            <v>danishmulti</v>
-          </cell>
-          <cell r="B61" t="str">
-            <v>Danish reinsurance claim dataset</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62" t="str">
-            <v>danishuni</v>
-          </cell>
-          <cell r="B62" t="str">
-            <v>Danish reinsurance claim dataset</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63" t="str">
-            <v>eqlist</v>
-          </cell>
-          <cell r="B63" t="str">
-            <v>Earthquake list</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64" t="str">
-            <v>eudirectlapse</v>
-          </cell>
-          <cell r="B64" t="str">
-            <v>European lapse dataset from the direct channel</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65" t="str">
-            <v>eusavingULnoPS</v>
-          </cell>
-          <cell r="B65" t="str">
-            <v>European surrender dataset from the direct channel</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66" t="str">
-            <v>eusavingULnoPSperMth</v>
-          </cell>
-          <cell r="B66" t="str">
-            <v>European surrender dataset from the direct channel</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67" t="str">
-            <v>eusavingULnoPSperQtr</v>
-          </cell>
-          <cell r="B67" t="str">
-            <v>European surrender dataset from the direct channel</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68" t="str">
-            <v>eusavingULnoPSperYr</v>
-          </cell>
-          <cell r="B68" t="str">
-            <v>European surrender dataset from the direct channel</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69" t="str">
-            <v>forexUSUK</v>
-          </cell>
-          <cell r="B69" t="str">
-            <v>Foreign exchange rate between USD and GBP</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70" t="str">
-            <v>freAS0002</v>
-          </cell>
-          <cell r="B70" t="str">
-            <v>French Mortality Tables</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71" t="str">
-            <v>freMPL1</v>
-          </cell>
-          <cell r="B71" t="str">
-            <v>French Motor Personal Line datasets</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72" t="str">
-            <v>freMPL10</v>
-          </cell>
-          <cell r="B72" t="str">
-            <v>French Motor Personal Line datasets</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73" t="str">
-            <v>freMPL2</v>
-          </cell>
-          <cell r="B73" t="str">
-            <v>French Motor Personal Line datasets</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74" t="str">
-            <v>freMPL3</v>
-          </cell>
-          <cell r="B74" t="str">
-            <v>French Motor Personal Line datasets</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75" t="str">
-            <v>freMPL4</v>
-          </cell>
-          <cell r="B75" t="str">
-            <v>French Motor Personal Line datasets</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76" t="str">
-            <v>freMPL5</v>
-          </cell>
-          <cell r="B76" t="str">
-            <v>French Motor Personal Line datasets</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77" t="str">
-            <v>freMPL6</v>
-          </cell>
-          <cell r="B77" t="str">
-            <v>French Motor Personal Line datasets</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78" t="str">
-            <v>freMPL7</v>
-          </cell>
-          <cell r="B78" t="str">
-            <v>French Motor Personal Line datasets</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79" t="str">
-            <v>freMPL8</v>
-          </cell>
-          <cell r="B79" t="str">
-            <v>French Motor Personal Line datasets</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80" t="str">
-            <v>freMPL9</v>
-          </cell>
-          <cell r="B80" t="str">
-            <v>French Motor Personal Line datasets</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81" t="str">
-            <v>freMTPL2freq</v>
-          </cell>
-          <cell r="B81" t="str">
-            <v>French Motor Third-Part Liability datasets</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82" t="str">
-            <v>freMTPL2sev</v>
-          </cell>
-          <cell r="B82" t="str">
-            <v>French Motor Third-Part Liability datasets</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="A83" t="str">
-            <v>freMTPLfreq</v>
-          </cell>
-          <cell r="B83" t="str">
-            <v>French Motor Third-Part Liability datasets</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="A84" t="str">
-            <v>freMTPLsev</v>
-          </cell>
-          <cell r="B84" t="str">
-            <v>French Motor Third-Part Liability datasets</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85" t="str">
-            <v>freP2Ddis10</v>
-          </cell>
-          <cell r="B85" t="str">
-            <v>French Disability Tables and Probabilities</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="A86" t="str">
-            <v>freP2Ddisprob10</v>
-          </cell>
-          <cell r="B86" t="str">
-            <v>French Disability Tables and Probabilities</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="A87" t="str">
-            <v>freP2Pdis10</v>
-          </cell>
-          <cell r="B87" t="str">
-            <v>French Disability Tables and Probabilities</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="A88" t="str">
-            <v>freP2Pdis13</v>
-          </cell>
-          <cell r="B88" t="str">
-            <v>French Disability Tables and Probabilities</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="A89" t="str">
-            <v>freP2Pdisprob10</v>
-          </cell>
-          <cell r="B89" t="str">
-            <v>French Disability Tables and Probabilities</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="A90" t="str">
-            <v>freP2Pdisprob13</v>
-          </cell>
-          <cell r="B90" t="str">
-            <v>French Disability Tables and Probabilities</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="A91" t="str">
-            <v>frePF6064</v>
-          </cell>
-          <cell r="B91" t="str">
-            <v>French Mortality Tables</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="A92" t="str">
-            <v>frePM6064</v>
-          </cell>
-          <cell r="B92" t="str">
-            <v>French Mortality Tables</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="A93" t="str">
-            <v>freT2Ddis10</v>
-          </cell>
-          <cell r="B93" t="str">
-            <v>French Disability Tables and Probabilities</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="A94" t="str">
-            <v>freT2Ddisprob10</v>
-          </cell>
-          <cell r="B94" t="str">
-            <v>French Disability Tables and Probabilities</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="A95" t="str">
-            <v>freT2Pdis10</v>
-          </cell>
-          <cell r="B95" t="str">
-            <v>French Disability Tables and Probabilities</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="A96" t="str">
-            <v>freT2Pdis13</v>
-          </cell>
-          <cell r="B96" t="str">
-            <v>French Disability Tables and Probabilities</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="A97" t="str">
-            <v>freT2Pdisprob10</v>
-          </cell>
-          <cell r="B97" t="str">
-            <v>French Disability Tables and Probabilities</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="A98" t="str">
-            <v>freT2Pdisprob13</v>
-          </cell>
-          <cell r="B98" t="str">
-            <v>French Disability Tables and Probabilities</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="A99" t="str">
-            <v>freT2Tdis10</v>
-          </cell>
-          <cell r="B99" t="str">
-            <v>French Disability Tables and Probabilities</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="A100" t="str">
-            <v>freT2Tdis13</v>
-          </cell>
-          <cell r="B100" t="str">
-            <v>French Disability Tables and Probabilities</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="A101" t="str">
-            <v>freT2Tdisprob10</v>
-          </cell>
-          <cell r="B101" t="str">
-            <v>French Disability Tables and Probabilities</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="A102" t="str">
-            <v>freT2Tdisprob13</v>
-          </cell>
-          <cell r="B102" t="str">
-            <v>French Disability Tables and Probabilities</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="A103" t="str">
-            <v>freTD7377</v>
-          </cell>
-          <cell r="B103" t="str">
-            <v>French Mortality Tables</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="A104" t="str">
-            <v>freTD8890</v>
-          </cell>
-          <cell r="B104" t="str">
-            <v>French Mortality Tables</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="A105" t="str">
-            <v>freTF0002</v>
-          </cell>
-          <cell r="B105" t="str">
-            <v>French Mortality Tables</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="A106" t="str">
-            <v>freTGF05</v>
-          </cell>
-          <cell r="B106" t="str">
-            <v>French Mortality Tables</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="A107" t="str">
-            <v>freTGH05</v>
-          </cell>
-          <cell r="B107" t="str">
-            <v>French Mortality Tables</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="A108" t="str">
-            <v>freTH0002</v>
-          </cell>
-          <cell r="B108" t="str">
-            <v>French Mortality Tables</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="A109" t="str">
-            <v>freTPG93full</v>
-          </cell>
-          <cell r="B109" t="str">
-            <v>French Mortality Tables</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="A110" t="str">
-            <v>freTPRV93</v>
-          </cell>
-          <cell r="B110" t="str">
-            <v>French Mortality Tables</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="A111" t="str">
-            <v>freTV7377</v>
-          </cell>
-          <cell r="B111" t="str">
-            <v>French Mortality Tables</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="A112" t="str">
-            <v>freTV8890</v>
-          </cell>
-          <cell r="B112" t="str">
-            <v>French Mortality Tables</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="A113" t="str">
-            <v>freaggnumber</v>
-          </cell>
-          <cell r="B113" t="str">
-            <v>French aggregate claim numbers</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="A114" t="str">
-            <v>frebiloss</v>
-          </cell>
-          <cell r="B114" t="str">
-            <v>French business interruption losses</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="A115" t="str">
-            <v>freclaimset</v>
-          </cell>
-          <cell r="B115" t="str">
-            <v>French claim settlements</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="A116" t="str">
-            <v>freclaimset2motor</v>
-          </cell>
-          <cell r="B116" t="str">
-            <v>French individual claim settlements</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="A117" t="str">
-            <v>freclaimset3dam9207</v>
-          </cell>
-          <cell r="B117" t="str">
-            <v>French individual claim settlements</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="A118" t="str">
-            <v>freclaimset3fire9207</v>
-          </cell>
-          <cell r="B118" t="str">
-            <v>French individual claim settlements</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="A119" t="str">
-            <v>frecomfire</v>
-          </cell>
-          <cell r="B119" t="str">
-            <v>French commercial fire losses</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="A120" t="str">
-            <v>fredpt17</v>
-          </cell>
-          <cell r="B120" t="str">
-            <v>French geospatial dataset for departments</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="A121" t="str">
-            <v>frefictivetable</v>
-          </cell>
-          <cell r="B121" t="str">
-            <v>Portfolio Mortality and Disability Tables</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="A122" t="str">
-            <v>frefictivetable2</v>
-          </cell>
-          <cell r="B122" t="str">
-            <v>Portfolio Mortality and Disability Tables</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="A123" t="str">
-            <v>frefictivetable3</v>
-          </cell>
-          <cell r="B123" t="str">
-            <v>Portfolio Mortality and Disability Tables</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="A124" t="str">
-            <v>fremarine</v>
-          </cell>
-          <cell r="B124" t="str">
-            <v>Some French marine losses</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="A125" t="str">
-            <v>fremotor1freq0304a</v>
-          </cell>
-          <cell r="B125" t="str">
-            <v>French claims for private motor</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="A126" t="str">
-            <v>fremotor1freq0304b</v>
-          </cell>
-          <cell r="B126" t="str">
-            <v>French claims for private motor</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="A127" t="str">
-            <v>fremotor1freq0304c</v>
-          </cell>
-          <cell r="B127" t="str">
-            <v>French claims for private motor</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="A128" t="str">
-            <v>fremotor1prem0304a</v>
-          </cell>
-          <cell r="B128" t="str">
-            <v>French claims for private motor</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="A129" t="str">
-            <v>fremotor1prem0304b</v>
-          </cell>
-          <cell r="B129" t="str">
-            <v>French claims for private motor</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="A130" t="str">
-            <v>fremotor1prem0304c</v>
-          </cell>
-          <cell r="B130" t="str">
-            <v>French claims for private motor</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="A131" t="str">
-            <v>fremotor1sev0304a</v>
-          </cell>
-          <cell r="B131" t="str">
-            <v>French claims for private motor</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="A132" t="str">
-            <v>fremotor1sev0304b</v>
-          </cell>
-          <cell r="B132" t="str">
-            <v>French claims for private motor</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="A133" t="str">
-            <v>fremotor1sev0304c</v>
-          </cell>
-          <cell r="B133" t="str">
-            <v>French claims for private motor</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="A134" t="str">
-            <v>fremotor2freq9907b</v>
-          </cell>
-          <cell r="B134" t="str">
-            <v>French claims for private motor</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="A135" t="str">
-            <v>fremotor2freq9907u</v>
-          </cell>
-          <cell r="B135" t="str">
-            <v>French claims for private motor</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="A136" t="str">
-            <v>fremotor2sev9907</v>
-          </cell>
-          <cell r="B136" t="str">
-            <v>French claims for private motor</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="A137" t="str">
-            <v>fremotor3freq9907b</v>
-          </cell>
-          <cell r="B137" t="str">
-            <v>French claims for private motor</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="A138" t="str">
-            <v>fremotor3freq9907u</v>
-          </cell>
-          <cell r="B138" t="str">
-            <v>French claims for private motor</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="A139" t="str">
-            <v>fremotor3sev9907</v>
-          </cell>
-          <cell r="B139" t="str">
-            <v>French claims for private motor</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="A140" t="str">
-            <v>fremotor4freq9907b</v>
-          </cell>
-          <cell r="B140" t="str">
-            <v>French claims for private motor</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="A141" t="str">
-            <v>fremotor4freq9907u</v>
-          </cell>
-          <cell r="B141" t="str">
-            <v>French claims for private motor</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="A142" t="str">
-            <v>fremotor4sev9907</v>
-          </cell>
-          <cell r="B142" t="str">
-            <v>French claims for private motor</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="A143" t="str">
-            <v>freprojqxINSEE</v>
-          </cell>
-          <cell r="B143" t="str">
-            <v>Portfolio Mortality and Disability Tables</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="A144" t="str">
-            <v>freptfpermdis</v>
-          </cell>
-          <cell r="B144" t="str">
-            <v>Portfolio Mortality and Disability Tables</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="A145" t="str">
-            <v>freptftempdis</v>
-          </cell>
-          <cell r="B145" t="str">
-            <v>Portfolio Mortality and Disability Tables</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="A146" t="str">
-            <v>fretri1auto9605</v>
-          </cell>
-          <cell r="B146" t="str">
-            <v>French private motor triangles</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="A147" t="str">
-            <v>fretri2auto9605</v>
-          </cell>
-          <cell r="B147" t="str">
-            <v>French private motor triangles</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="A148" t="str">
-            <v>fretri3auto9605</v>
-          </cell>
-          <cell r="B148" t="str">
-            <v>French private motor triangles</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="A149" t="str">
-            <v>fretri4auto9403</v>
-          </cell>
-          <cell r="B149" t="str">
-            <v>French private motor triangles</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="A150" t="str">
-            <v>hurricanehist</v>
-          </cell>
-          <cell r="B150" t="str">
-            <v>Hurricane history: Per Storm Maximum Wind Speeds (North Atlantic)</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="A151" t="str">
-            <v>itamtplcost</v>
-          </cell>
-          <cell r="B151" t="str">
-            <v>Italian MTPL cost</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="A152" t="str">
-            <v>linearmodelfactor</v>
-          </cell>
-          <cell r="B152" t="str">
-            <v>A simulated with linear model factor</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="A153" t="str">
-            <v>lossalae</v>
-          </cell>
-          <cell r="B153" t="str">
-            <v>General Liability Claims</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="A154" t="str">
-            <v>lossalaefull</v>
-          </cell>
-          <cell r="B154" t="str">
-            <v>General Liability Claims</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="A155" t="str">
-            <v>norauto</v>
-          </cell>
-          <cell r="B155" t="str">
-            <v>Norwegian fire insurance dataset</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="A156" t="str">
-            <v>norfire</v>
-          </cell>
-          <cell r="B156" t="str">
-            <v>Norwegian fire insurance dataset</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="A157" t="str">
-            <v>nortritpl8800</v>
-          </cell>
-          <cell r="B157" t="str">
-            <v>Australian liabilty insurance triangles</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="A158" t="str">
-            <v>nzcathist</v>
-          </cell>
-          <cell r="B158" t="str">
-            <v>New Zealand catastrophe historic</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="A159" t="str">
-            <v>pg15pricing</v>
-          </cell>
-          <cell r="B159" t="str">
-            <v>French Motor Third-Part Liability datasets used for 100 percent Data Science game</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="A160" t="str">
-            <v>pg15training</v>
-          </cell>
-          <cell r="B160" t="str">
-            <v>French Motor Third-Part Liability datasets used for 100 percent Data Science game</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="A161" t="str">
-            <v>pg16test</v>
-          </cell>
-          <cell r="B161" t="str">
-            <v>French Motor Third-Part Liability datasets used for 100 percent Data Science game</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="A162" t="str">
-            <v>pg16trainclaim</v>
-          </cell>
-          <cell r="B162" t="str">
-            <v>French Motor Third-Part Liability datasets used for 100 percent Data Science game</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="A163" t="str">
-            <v>pg16trainpol</v>
-          </cell>
-          <cell r="B163" t="str">
-            <v>French Motor Third-Part Liability datasets used for 100 percent Data Science game</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="A164" t="str">
-            <v>pg17testyear1</v>
-          </cell>
-          <cell r="B164" t="str">
-            <v>French Motor Third-Part Liability datasets used for 100 percent Data Science game</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="A165" t="str">
-            <v>pg17testyear2</v>
-          </cell>
-          <cell r="B165" t="str">
-            <v>French Motor Third-Part Liability datasets used for 100 percent Data Science game</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="A166" t="str">
-            <v>pg17testyear3</v>
-          </cell>
-          <cell r="B166" t="str">
-            <v>French Motor Third-Part Liability datasets used for 100 percent Data Science game</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="A167" t="str">
-            <v>pg17testyear4</v>
-          </cell>
-          <cell r="B167" t="str">
-            <v>French Motor Third-Part Liability datasets used for 100 percent Data Science game</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="A168" t="str">
-            <v>pg17trainclaim</v>
-          </cell>
-          <cell r="B168" t="str">
-            <v>French Motor Third-Part Liability datasets used for 100 percent Data Science game</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="A169" t="str">
-            <v>pg17trainpol</v>
-          </cell>
-          <cell r="B169" t="str">
-            <v>French Motor Third-Part Liability datasets used for 100 percent Data Science game</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="A170" t="str">
-            <v>sgautoBI9301</v>
-          </cell>
-          <cell r="B170" t="str">
-            <v>Singapore general liability triangles</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="A171" t="str">
-            <v>sgautonb</v>
-          </cell>
-          <cell r="B171" t="str">
-            <v>Singapore Automobile claim count dataset</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="A172" t="str">
-            <v>sgautoprop9701</v>
-          </cell>
-          <cell r="B172" t="str">
-            <v>Singapore general liability triangles</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="A173" t="str">
-            <v>spacedata</v>
-          </cell>
-          <cell r="B173" t="str">
-            <v>Space dataset</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="A174" t="str">
-            <v>swautoins</v>
-          </cell>
-          <cell r="B174" t="str">
-            <v>Swedish Motor Insurance dataset</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="A175" t="str">
-            <v>swbusscase</v>
-          </cell>
-          <cell r="B175" t="str">
-            <v>Swedish Buss Insurance dataset</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="A176" t="str">
-            <v>swmotorcycle</v>
-          </cell>
-          <cell r="B176" t="str">
-            <v>Swedish Motorcycle Insurance dataset</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="A177" t="str">
-            <v>swtri1auto</v>
-          </cell>
-          <cell r="B177" t="str">
-            <v>Switzerland general liability triangles</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="A178" t="str">
-            <v>tplclaimnumber</v>
-          </cell>
-          <cell r="B178" t="str">
-            <v>TPL claim number dataset</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="A179" t="str">
-            <v>ukaggclaim</v>
-          </cell>
-          <cell r="B179" t="str">
-            <v>UK Car Insurance Claims for 1975</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="A180" t="str">
-            <v>ukautocoll</v>
-          </cell>
-          <cell r="B180" t="str">
-            <v>UK Automobile Collision Claims</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="A181" t="str">
-            <v>usautoBI</v>
-          </cell>
-          <cell r="B181" t="str">
-            <v>Automobile bodily injury claim dataset</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="A182" t="str">
-            <v>usautotri9504</v>
-          </cell>
-          <cell r="B182" t="str">
-            <v>US Automobile triangles</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="A183" t="str">
-            <v>usexpense</v>
-          </cell>
-          <cell r="B183" t="str">
-            <v>US expense dataset</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="A184" t="str">
-            <v>ushuannualloss</v>
-          </cell>
-          <cell r="B184" t="str">
-            <v>Normalized Hurricane Damages</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="A185" t="str">
-            <v>ushuinflation</v>
-          </cell>
-          <cell r="B185" t="str">
-            <v>Normalized Hurricane Damages</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="A186" t="str">
-            <v>ushupopulation</v>
-          </cell>
-          <cell r="B186" t="str">
-            <v>Normalized Hurricane Damages</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="A187" t="str">
-            <v>ushustormloss</v>
-          </cell>
-          <cell r="B187" t="str">
-            <v>Normalized Hurricane Damages</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="A188" t="str">
-            <v>ushustormloss4980</v>
-          </cell>
-          <cell r="B188" t="str">
-            <v>Normalized Hurricane Damages in US between 1949 and 1980</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="A189" t="str">
-            <v>uslapseagent</v>
-          </cell>
-          <cell r="B189" t="str">
-            <v>United States lapse dataset from tied-agent channel</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="A190" t="str">
-            <v>usmassBI</v>
-          </cell>
-          <cell r="B190" t="str">
-            <v>Massachusetts Automobile bodily injury claim datasets</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="A191" t="str">
-            <v>usmassBI2</v>
-          </cell>
-          <cell r="B191" t="str">
-            <v>Massachusetts Automobile bodily injury claim datasets</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="A192" t="str">
-            <v>usmedclaim</v>
-          </cell>
-          <cell r="B192" t="str">
-            <v>US Medical claim incremental triangles</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="A193" t="str">
-            <v>usprivautoclaim</v>
-          </cell>
-          <cell r="B193" t="str">
-            <v>US Private Auto Claims</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="A194" t="str">
-            <v>usquakeLR</v>
-          </cell>
-          <cell r="B194" t="str">
-            <v>California earthquake loss ratios</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="A195" t="str">
-            <v>usreGL8190</v>
-          </cell>
-          <cell r="B195" t="str">
-            <v>US general liability triangles</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="A196" t="str">
-            <v>usreGL8700</v>
-          </cell>
-          <cell r="B196" t="str">
-            <v>US general liability triangles</v>
-          </cell>
-        </row>
-        <row r="197">
-          <cell r="A197" t="str">
-            <v>usreauto8700</v>
-          </cell>
-          <cell r="B197" t="str">
-            <v>US Automobile triangles</v>
-          </cell>
-        </row>
-        <row r="198">
-          <cell r="A198" t="str">
-            <v>ustermlife</v>
-          </cell>
-          <cell r="B198" t="str">
-            <v>US Term Life insurance</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="A199" t="str">
-            <v>ustri1fire</v>
-          </cell>
-          <cell r="B199" t="str">
-            <v>US general liability triangles</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="A200" t="str">
-            <v>ustri2GL</v>
-          </cell>
-          <cell r="B200" t="str">
-            <v>US general liability triangles</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="A201" t="str">
-            <v>uswarrantaggnum</v>
-          </cell>
-          <cell r="B201" t="str">
-            <v>Warranty Automobile claims</v>
-          </cell>
-        </row>
-        <row r="202">
-          <cell r="A202" t="str">
-            <v>usworkcomp</v>
-          </cell>
-          <cell r="B202" t="str">
-            <v>US workers compensation datasets</v>
-          </cell>
-        </row>
-        <row r="203">
-          <cell r="A203" t="str">
-            <v>usworkcomptri8807</v>
-          </cell>
-          <cell r="B203" t="str">
-            <v>US workers compensation datasets</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2664,7 +1236,7 @@
   <dimension ref="A1:G192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2717,14 +1289,13 @@
         <f>E2/D2</f>
         <v>0</v>
       </c>
-      <c r="G2" t="str">
-        <f>VLOOKUP(A2,[1]Sheet1!$A:$B,2,0)</f>
-        <v>European surrender dataset from the direct channel</v>
+      <c r="G2" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1">
         <v>666938</v>
@@ -2737,15 +1308,14 @@
         <v>12004884</v>
       </c>
       <c r="E3" s="1">
-        <v>320131</v>
+        <v>319615</v>
       </c>
       <c r="F3" s="3">
         <f>E3/D3</f>
-        <v>2.6666729974233819E-2</v>
-      </c>
-      <c r="G3" t="str">
-        <f>VLOOKUP(A3,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Two Brazilian datasets for vehicle insurance</v>
+        <v>2.6623747468113811E-2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2769,14 +1339,13 @@
         <f>E4/D4</f>
         <v>2.6628912032802651E-2</v>
       </c>
-      <c r="G4" t="str">
-        <f>VLOOKUP(A4,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Two Brazilian datasets for vehicle insurance</v>
+      <c r="G4" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="1">
         <v>666938</v>
@@ -2789,20 +1358,19 @@
         <v>12004884</v>
       </c>
       <c r="E5" s="1">
-        <v>319672</v>
+        <v>320131</v>
       </c>
       <c r="F5" s="3">
         <f>E5/D5</f>
-        <v>2.6628495535650325E-2</v>
-      </c>
-      <c r="G5" t="str">
-        <f>VLOOKUP(A5,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Two Brazilian datasets for vehicle insurance</v>
+        <v>2.6666729974233819E-2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B6" s="1">
         <v>666938</v>
@@ -2815,20 +1383,19 @@
         <v>12004884</v>
       </c>
       <c r="E6" s="1">
-        <v>319615</v>
+        <v>319672</v>
       </c>
       <c r="F6" s="3">
         <f>E6/D6</f>
-        <v>2.6623747468113811E-2</v>
-      </c>
-      <c r="G6" t="str">
-        <f>VLOOKUP(A6,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Two Brazilian datasets for vehicle insurance</v>
+        <v>2.6628495535650325E-2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1">
         <v>393071</v>
@@ -2841,20 +1408,19 @@
         <v>9040633</v>
       </c>
       <c r="E7" s="1">
-        <v>123033</v>
+        <v>122699</v>
       </c>
       <c r="F7" s="3">
         <f>E7/D7</f>
-        <v>1.3608892209207033E-2</v>
-      </c>
-      <c r="G7" t="str">
-        <f>VLOOKUP(A7,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Two Brazilian datasets for vehicle insurance</v>
+        <v>1.3571947893471619E-2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1">
         <v>393071</v>
@@ -2867,20 +1433,19 @@
         <v>9040633</v>
       </c>
       <c r="E8" s="1">
-        <v>122965</v>
+        <v>122957</v>
       </c>
       <c r="F8" s="3">
         <f>E8/D8</f>
-        <v>1.360137061199144E-2</v>
-      </c>
-      <c r="G8" t="str">
-        <f>VLOOKUP(A8,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Two Brazilian datasets for vehicle insurance</v>
+        <v>1.3600485718201369E-2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B9" s="1">
         <v>393071</v>
@@ -2893,20 +1458,19 @@
         <v>9040633</v>
       </c>
       <c r="E9" s="1">
-        <v>122957</v>
+        <v>123033</v>
       </c>
       <c r="F9" s="3">
         <f>E9/D9</f>
-        <v>1.3600485718201369E-2</v>
-      </c>
-      <c r="G9" t="str">
-        <f>VLOOKUP(A9,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Two Brazilian datasets for vehicle insurance</v>
+        <v>1.3608892209207033E-2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B10" s="1">
         <v>393071</v>
@@ -2919,20 +1483,19 @@
         <v>9040633</v>
       </c>
       <c r="E10" s="1">
-        <v>122699</v>
+        <v>122556</v>
       </c>
       <c r="F10" s="3">
         <f>E10/D10</f>
-        <v>1.3571947893471619E-2</v>
-      </c>
-      <c r="G10" t="str">
-        <f>VLOOKUP(A10,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Two Brazilian datasets for vehicle insurance</v>
+        <v>1.3556130416974121E-2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" s="1">
         <v>393071</v>
@@ -2945,15 +1508,14 @@
         <v>9040633</v>
       </c>
       <c r="E11" s="1">
-        <v>122556</v>
+        <v>122965</v>
       </c>
       <c r="F11" s="3">
         <f>E11/D11</f>
-        <v>1.3556130416974121E-2</v>
-      </c>
-      <c r="G11" t="str">
-        <f>VLOOKUP(A11,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Two Brazilian datasets for vehicle insurance</v>
+        <v>1.360137061199144E-2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2977,9 +1539,8 @@
         <f>E12/D12</f>
         <v>0</v>
       </c>
-      <c r="G12" t="str">
-        <f>VLOOKUP(A12,[1]Sheet1!$A:$B,2,0)</f>
-        <v>European surrender dataset from the direct channel</v>
+      <c r="G12" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -3003,9 +1564,8 @@
         <f>E13/D13</f>
         <v>0</v>
       </c>
-      <c r="G13" t="str">
-        <f>VLOOKUP(A13,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Motor Third-Part Liability datasets</v>
+      <c r="G13" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3029,9 +1589,8 @@
         <f>E14/D14</f>
         <v>1.4343911181047294E-2</v>
       </c>
-      <c r="G14" t="str">
-        <f>VLOOKUP(A14,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Portfolio Mortality and Disability Tables</v>
+      <c r="G14" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -3055,9 +1614,8 @@
         <f>E15/D15</f>
         <v>3.5705757922530848E-2</v>
       </c>
-      <c r="G15" t="str">
-        <f>VLOOKUP(A15,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Portfolio Mortality and Disability Tables</v>
+      <c r="G15" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3081,9 +1639,8 @@
         <f>E16/D16</f>
         <v>0</v>
       </c>
-      <c r="G16" t="str">
-        <f>VLOOKUP(A16,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Motor Third-Part Liability datasets</v>
+      <c r="G16" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -3107,14 +1664,13 @@
         <f>E17/D17</f>
         <v>0</v>
       </c>
-      <c r="G17" t="str">
-        <f>VLOOKUP(A17,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French individual claim settlements</v>
+      <c r="G17" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B18" s="1">
         <v>100000</v>
@@ -3127,20 +1683,19 @@
         <v>3100000</v>
       </c>
       <c r="E18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <f>E18/D18</f>
-        <v>3.225806451612903E-7</v>
-      </c>
-      <c r="G18" t="str">
-        <f>VLOOKUP(A18,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Motor Third-Part Liability datasets used for 100 percent Data Science game</v>
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B19" s="1">
         <v>100000</v>
@@ -3159,14 +1714,13 @@
         <f>E19/D19</f>
         <v>0</v>
       </c>
-      <c r="G19" t="str">
-        <f>VLOOKUP(A19,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Motor Third-Part Liability datasets used for 100 percent Data Science game</v>
+      <c r="G19" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B20" s="1">
         <v>100000</v>
@@ -3185,14 +1739,13 @@
         <f>E20/D20</f>
         <v>0</v>
       </c>
-      <c r="G20" t="str">
-        <f>VLOOKUP(A20,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Motor Third-Part Liability datasets used for 100 percent Data Science game</v>
+      <c r="G20" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B21" s="1">
         <v>100000</v>
@@ -3211,14 +1764,13 @@
         <f>E21/D21</f>
         <v>0</v>
       </c>
-      <c r="G21" t="str">
-        <f>VLOOKUP(A21,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Motor Third-Part Liability datasets used for 100 percent Data Science game</v>
+      <c r="G21" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B22" s="1">
         <v>100000</v>
@@ -3231,15 +1783,14 @@
         <v>3100000</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="3">
         <f>E22/D22</f>
-        <v>0</v>
-      </c>
-      <c r="G22" t="str">
-        <f>VLOOKUP(A22,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Motor Third-Part Liability datasets used for 100 percent Data Science game</v>
+        <v>3.225806451612903E-7</v>
+      </c>
+      <c r="G22" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -3263,9 +1814,8 @@
         <f>E23/D23</f>
         <v>0</v>
       </c>
-      <c r="G23" t="str">
-        <f>VLOOKUP(A23,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French claims for private motor</v>
+      <c r="G23" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -3289,9 +1839,8 @@
         <f>E24/D24</f>
         <v>0</v>
       </c>
-      <c r="G24" t="str">
-        <f>VLOOKUP(A24,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French claims for private motor</v>
+      <c r="G24" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -3315,9 +1864,8 @@
         <f>E25/D25</f>
         <v>0</v>
       </c>
-      <c r="G25" t="str">
-        <f>VLOOKUP(A25,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French claims for private motor</v>
+      <c r="G25" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -3341,9 +1889,8 @@
         <f>E26/D26</f>
         <v>0</v>
       </c>
-      <c r="G26" t="str">
-        <f>VLOOKUP(A26,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French individual claim settlements</v>
+      <c r="G26" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -3367,9 +1914,8 @@
         <f>E27/D27</f>
         <v>0</v>
       </c>
-      <c r="G27" t="str">
-        <f>VLOOKUP(A27,[1]Sheet1!$A:$B,2,0)</f>
-        <v>TPL claim number dataset</v>
+      <c r="G27" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -3393,9 +1939,8 @@
         <f>E28/D28</f>
         <v>0</v>
       </c>
-      <c r="G28" t="str">
-        <f>VLOOKUP(A28,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Motor Third-Part Liability datasets used for 100 percent Data Science game</v>
+      <c r="G28" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -3419,14 +1964,13 @@
         <f>E29/D29</f>
         <v>0</v>
       </c>
-      <c r="G29" t="str">
-        <f>VLOOKUP(A29,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Motor Third-Part Liability datasets used for 100 percent Data Science game</v>
+      <c r="G29" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B30" s="1">
         <v>72749</v>
@@ -3439,20 +1983,19 @@
         <v>1673227</v>
       </c>
       <c r="E30" s="1">
-        <v>288770</v>
+        <v>288387</v>
       </c>
       <c r="F30" s="3">
         <f>E30/D30</f>
-        <v>0.17258268005476843</v>
-      </c>
-      <c r="G30" t="str">
-        <f>VLOOKUP(A30,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French claims for private motor</v>
+        <v>0.17235378104704263</v>
+      </c>
+      <c r="G30" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B31" s="1">
         <v>72749</v>
@@ -3465,15 +2008,14 @@
         <v>1673227</v>
       </c>
       <c r="E31" s="1">
-        <v>288387</v>
+        <v>288770</v>
       </c>
       <c r="F31" s="3">
         <f>E31/D31</f>
-        <v>0.17235378104704263</v>
-      </c>
-      <c r="G31" t="str">
-        <f>VLOOKUP(A31,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French claims for private motor</v>
+        <v>0.17258268005476843</v>
+      </c>
+      <c r="G31" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -3497,9 +2039,8 @@
         <f>E32/D32</f>
         <v>0.17217090089987791</v>
       </c>
-      <c r="G32" t="str">
-        <f>VLOOKUP(A32,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French claims for private motor</v>
+      <c r="G32" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -3523,9 +2064,8 @@
         <f>E33/D33</f>
         <v>4.4849114836987558E-2</v>
       </c>
-      <c r="G33" t="str">
-        <f>VLOOKUP(A33,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French claims for private motor</v>
+      <c r="G33" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -3549,9 +2089,8 @@
         <f>E34/D34</f>
         <v>4.4849114836987558E-2</v>
       </c>
-      <c r="G34" t="str">
-        <f>VLOOKUP(A34,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French claims for private motor</v>
+      <c r="G34" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -3575,9 +2114,8 @@
         <f>E35/D35</f>
         <v>4.4849114836987558E-2</v>
       </c>
-      <c r="G35" t="str">
-        <f>VLOOKUP(A35,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French claims for private motor</v>
+      <c r="G35" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -3601,9 +2139,8 @@
         <f>E36/D36</f>
         <v>0</v>
       </c>
-      <c r="G36" t="str">
-        <f>VLOOKUP(A36,[1]Sheet1!$A:$B,2,0)</f>
-        <v>European surrender dataset from the direct channel</v>
+      <c r="G36" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -3627,9 +2164,8 @@
         <f>E37/D37</f>
         <v>0</v>
       </c>
-      <c r="G37" t="str">
-        <f>VLOOKUP(A37,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Norwegian fire insurance dataset</v>
+      <c r="G37" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -3653,9 +2189,8 @@
         <f>E38/D38</f>
         <v>2.1011021280200284E-2</v>
       </c>
-      <c r="G38" t="str">
-        <f>VLOOKUP(A38,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Motor Personal Line datasets</v>
+      <c r="G38" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -3679,9 +2214,8 @@
         <f>E39/D39</f>
         <v>2.33125E-2</v>
       </c>
-      <c r="G39" t="str">
-        <f>VLOOKUP(A39,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Motor Personal Line datasets</v>
+      <c r="G39" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -3705,9 +2239,8 @@
         <f>E40/D40</f>
         <v>2.0047077990141174E-2</v>
       </c>
-      <c r="G40" t="str">
-        <f>VLOOKUP(A40,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Motor Personal Line datasets</v>
+      <c r="G40" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -3731,9 +2264,8 @@
         <f>E41/D41</f>
         <v>2.3681693989071037E-2</v>
       </c>
-      <c r="G41" t="str">
-        <f>VLOOKUP(A41,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Motor Personal Line datasets</v>
+      <c r="G41" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -3757,9 +2289,8 @@
         <f>E42/D42</f>
         <v>0</v>
       </c>
-      <c r="G42" t="str">
-        <f>VLOOKUP(A42,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Automobile claim datasets in Australia</v>
+      <c r="G42" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -3783,9 +2314,8 @@
         <f>E43/D43</f>
         <v>2.0098481564904753E-2</v>
       </c>
-      <c r="G43" t="str">
-        <f>VLOOKUP(A43,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Motor Personal Line datasets</v>
+      <c r="G43" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -3809,9 +2339,8 @@
         <f>E44/D44</f>
         <v>0</v>
       </c>
-      <c r="G44" t="str">
-        <f>VLOOKUP(A44,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Motor Third-Part Liability datasets used for 100 percent Data Science game</v>
+      <c r="G44" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -3835,9 +2364,8 @@
         <f>E45/D45</f>
         <v>2.4364705882352941E-2</v>
       </c>
-      <c r="G45" t="str">
-        <f>VLOOKUP(A45,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Motor Personal Line datasets</v>
+      <c r="G45" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -3861,9 +2389,8 @@
         <f>E46/D46</f>
         <v>2.2854175938288087E-2</v>
       </c>
-      <c r="G46" t="str">
-        <f>VLOOKUP(A46,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Motor Personal Line datasets</v>
+      <c r="G46" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -3887,9 +2414,8 @@
         <f>E47/D47</f>
         <v>2.1012048908764059E-2</v>
       </c>
-      <c r="G47" t="str">
-        <f>VLOOKUP(A47,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Motor Personal Line datasets</v>
+      <c r="G47" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -3913,9 +2439,8 @@
         <f>E48/D48</f>
         <v>0</v>
       </c>
-      <c r="G48" t="str">
-        <f>VLOOKUP(A48,[1]Sheet1!$A:$B,2,0)</f>
-        <v>European surrender dataset from the direct channel</v>
+      <c r="G48" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -3939,9 +2464,8 @@
         <f>E49/D49</f>
         <v>0</v>
       </c>
-      <c r="G49" t="str">
-        <f>VLOOKUP(A49,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Automobile claim datasets in Australia</v>
+      <c r="G49" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -3965,9 +2489,8 @@
         <f>E50/D50</f>
         <v>0</v>
       </c>
-      <c r="G50" t="str">
-        <f>VLOOKUP(A50,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Swedish Motorcycle Insurance dataset</v>
+      <c r="G50" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -3991,9 +2514,8 @@
         <f>E51/D51</f>
         <v>0</v>
       </c>
-      <c r="G51" t="str">
-        <f>VLOOKUP(A51,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Motor Third-Part Liability datasets used for 100 percent Data Science game</v>
+      <c r="G51" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -4017,9 +2539,8 @@
         <f>E52/D52</f>
         <v>2.4282442748091604E-2</v>
       </c>
-      <c r="G52" t="str">
-        <f>VLOOKUP(A52,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Motor Personal Line datasets</v>
+      <c r="G52" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -4043,9 +2564,8 @@
         <f>E53/D53</f>
         <v>0</v>
       </c>
-      <c r="G53" t="str">
-        <f>VLOOKUP(A53,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Portfolio Mortality and Disability Tables</v>
+      <c r="G53" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -4069,9 +2589,8 @@
         <f>E54/D54</f>
         <v>2.4649999999999998E-2</v>
       </c>
-      <c r="G54" t="str">
-        <f>VLOOKUP(A54,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Motor Personal Line datasets</v>
+      <c r="G54" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -4095,9 +2614,8 @@
         <f>E55/D55</f>
         <v>0</v>
       </c>
-      <c r="G55" t="str">
-        <f>VLOOKUP(A55,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French claims for private motor</v>
+      <c r="G55" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -4121,9 +2639,8 @@
         <f>E56/D56</f>
         <v>0</v>
       </c>
-      <c r="G56" t="str">
-        <f>VLOOKUP(A56,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French claims for private motor</v>
+      <c r="G56" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -4147,9 +2664,8 @@
         <f>E57/D57</f>
         <v>0</v>
       </c>
-      <c r="G57" t="str">
-        <f>VLOOKUP(A57,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French claims for private motor</v>
+      <c r="G57" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -4173,9 +2689,8 @@
         <f>E58/D58</f>
         <v>0</v>
       </c>
-      <c r="G58" t="str">
-        <f>VLOOKUP(A58,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Insurance Company Benchmark</v>
+      <c r="G58" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -4199,9 +2714,8 @@
         <f>E59/D59</f>
         <v>0</v>
       </c>
-      <c r="G59" t="str">
-        <f>VLOOKUP(A59,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Portfolio Mortality and Disability Tables</v>
+      <c r="G59" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -4225,9 +2739,8 @@
         <f>E60/D60</f>
         <v>0</v>
       </c>
-      <c r="G60" t="str">
-        <f>VLOOKUP(A60,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Portfolio Mortality and Disability Tables</v>
+      <c r="G60" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -4251,9 +2764,8 @@
         <f>E61/D61</f>
         <v>0</v>
       </c>
-      <c r="G61" t="str">
-        <f>VLOOKUP(A61,[1]Sheet1!$A:$B,2,0)</f>
-        <v>United States lapse dataset from tied-agent channel</v>
+      <c r="G61" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -4277,9 +2789,8 @@
         <f>E62/D62</f>
         <v>0</v>
       </c>
-      <c r="G62" t="str">
-        <f>VLOOKUP(A62,[1]Sheet1!$A:$B,2,0)</f>
-        <v>European lapse dataset from the direct channel</v>
+      <c r="G62" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -4303,9 +2814,8 @@
         <f>E63/D63</f>
         <v>0</v>
       </c>
-      <c r="G63" t="str">
-        <f>VLOOKUP(A63,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Insurance Company Benchmark</v>
+      <c r="G63" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -4329,9 +2839,8 @@
         <f>E64/D64</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G64" t="str">
-        <f>VLOOKUP(A64,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Automobile bodily injury claim dataset in Australia</v>
+      <c r="G64" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -4355,9 +2864,8 @@
         <f>E65/D65</f>
         <v>0</v>
       </c>
-      <c r="G65" t="str">
-        <f>VLOOKUP(A65,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French claims for private motor</v>
+      <c r="G65" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -4381,9 +2889,8 @@
         <f>E66/D66</f>
         <v>0</v>
       </c>
-      <c r="G66" t="str">
-        <f>VLOOKUP(A66,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French claims for private motor</v>
+      <c r="G66" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -4407,9 +2914,8 @@
         <f>E67/D67</f>
         <v>0</v>
       </c>
-      <c r="G67" t="str">
-        <f>VLOOKUP(A67,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French claims for private motor</v>
+      <c r="G67" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -4433,9 +2939,8 @@
         <f>E68/D68</f>
         <v>0.17198071216617211</v>
       </c>
-      <c r="G68" t="str">
-        <f>VLOOKUP(A68,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Earthquake list</v>
+      <c r="G68" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -4459,9 +2964,8 @@
         <f>E69/D69</f>
         <v>0</v>
       </c>
-      <c r="G69" t="str">
-        <f>VLOOKUP(A69,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Singapore Automobile claim count dataset</v>
+      <c r="G69" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -4485,9 +2989,8 @@
         <f>E70/D70</f>
         <v>0</v>
       </c>
-      <c r="G70" t="str">
-        <f>VLOOKUP(A70,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Motor Third-Part Liability datasets used for 100 percent Data Science game</v>
+      <c r="G70" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -4511,9 +3014,8 @@
         <f>E71/D71</f>
         <v>0</v>
       </c>
-      <c r="G71" t="str">
-        <f>VLOOKUP(A71,[1]Sheet1!$A:$B,2,0)</f>
-        <v>SOA Group Medical Insurance claim dataset</v>
+      <c r="G71" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -4537,9 +3039,8 @@
         <f>E72/D72</f>
         <v>0</v>
       </c>
-      <c r="G72" t="str">
-        <f>VLOOKUP(A72,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Canadian life insurance</v>
+      <c r="G72" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -4563,9 +3064,8 @@
         <f>E73/D73</f>
         <v>0</v>
       </c>
-      <c r="G73" t="str">
-        <f>VLOOKUP(A73,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French aggregate claim numbers</v>
+      <c r="G73" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -4589,9 +3089,8 @@
         <f>E74/D74</f>
         <v>0</v>
       </c>
-      <c r="G74" t="str">
-        <f>VLOOKUP(A74,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Motor Third-Part Liability datasets</v>
+      <c r="G74" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -4615,9 +3114,8 @@
         <f>E75/D75</f>
         <v>0</v>
       </c>
-      <c r="G75" t="str">
-        <f>VLOOKUP(A75,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French claims for private motor</v>
+      <c r="G75" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -4641,9 +3139,8 @@
         <f>E76/D76</f>
         <v>0</v>
       </c>
-      <c r="G76" t="str">
-        <f>VLOOKUP(A76,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French claims for private motor</v>
+      <c r="G76" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -4667,9 +3164,8 @@
         <f>E77/D77</f>
         <v>0</v>
       </c>
-      <c r="G77" t="str">
-        <f>VLOOKUP(A77,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French claims for private motor</v>
+      <c r="G77" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -4693,9 +3189,8 @@
         <f>E78/D78</f>
         <v>0</v>
       </c>
-      <c r="G78" t="str">
-        <f>VLOOKUP(A78,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Motor Third-Part Liability datasets used for 100 percent Data Science game</v>
+      <c r="G78" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -4719,9 +3214,8 @@
         <f>E79/D79</f>
         <v>0</v>
       </c>
-      <c r="G79" t="str">
-        <f>VLOOKUP(A79,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French commercial fire losses</v>
+      <c r="G79" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -4745,9 +3239,8 @@
         <f>E80/D80</f>
         <v>0</v>
       </c>
-      <c r="G80" t="str">
-        <f>VLOOKUP(A80,[1]Sheet1!$A:$B,2,0)</f>
-        <v>US Private Auto Claims</v>
+      <c r="G80" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -4771,9 +3264,8 @@
         <f>E81/D81</f>
         <v>0</v>
       </c>
-      <c r="G81" t="str">
-        <f>VLOOKUP(A81,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Brazilian geospatial dataset for municipalities</v>
+      <c r="G81" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -4797,9 +3289,8 @@
         <f>E82/D82</f>
         <v>0</v>
       </c>
-      <c r="G82" t="str">
-        <f>VLOOKUP(A82,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Motor Third-Part Liability datasets</v>
+      <c r="G82" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -4823,9 +3314,8 @@
         <f>E83/D83</f>
         <v>0</v>
       </c>
-      <c r="G83" t="str">
-        <f>VLOOKUP(A83,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Norwegian fire insurance dataset</v>
+      <c r="G83" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -4849,9 +3339,8 @@
         <f>E84/D84</f>
         <v>0.22901943462897525</v>
       </c>
-      <c r="G84" t="str">
-        <f>VLOOKUP(A84,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Space dataset</v>
+      <c r="G84" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -4875,9 +3364,8 @@
         <f>E85/D85</f>
         <v>0.11718995290423861</v>
       </c>
-      <c r="G85" t="str">
-        <f>VLOOKUP(A85,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Some French marine losses</v>
+      <c r="G85" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -4901,9 +3389,8 @@
         <f>E86/D86</f>
         <v>0.25871066152858058</v>
       </c>
-      <c r="G86" t="str">
-        <f>VLOOKUP(A86,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Australian Market - non-life insurance (company, state, public level)</v>
+      <c r="G86" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -4927,9 +3414,8 @@
         <f>E87/D87</f>
         <v>0</v>
       </c>
-      <c r="G87" t="str">
-        <f>VLOOKUP(A87,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Foreign exchange rate between USD and GBP</v>
+      <c r="G87" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -4953,9 +3439,8 @@
         <f>E88/D88</f>
         <v>0</v>
       </c>
-      <c r="G88" t="str">
-        <f>VLOOKUP(A88,[1]Sheet1!$A:$B,2,0)</f>
-        <v>German Credit dataset</v>
+      <c r="G88" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -4979,9 +3464,8 @@
         <f>E89/D89</f>
         <v>0</v>
       </c>
-      <c r="G89" t="str">
-        <f>VLOOKUP(A89,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Yield curve data spot rate, AAA-rated bonds, maturities from 3 months to 30 years</v>
+      <c r="G89" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -5005,9 +3489,8 @@
         <f>E90/D90</f>
         <v>0</v>
       </c>
-      <c r="G90" t="str">
-        <f>VLOOKUP(A90,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French business interruption losses</v>
+      <c r="G90" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -5031,9 +3514,8 @@
         <f>E91/D91</f>
         <v>0</v>
       </c>
-      <c r="G91" t="str">
-        <f>VLOOKUP(A91,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Hurricane history: Per Storm Maximum Wind Speeds (North Atlantic)</v>
+      <c r="G91" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -5057,9 +3539,8 @@
         <f>E92/D92</f>
         <v>0</v>
       </c>
-      <c r="G92" t="str">
-        <f>VLOOKUP(A92,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Swedish Motor Insurance dataset</v>
+      <c r="G92" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -5083,9 +3564,8 @@
         <f>E93/D93</f>
         <v>0</v>
       </c>
-      <c r="G93" t="str">
-        <f>VLOOKUP(A93,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French claim settlements</v>
+      <c r="G93" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -5109,9 +3589,8 @@
         <f>E94/D94</f>
         <v>0.26638986013986016</v>
       </c>
-      <c r="G94" t="str">
-        <f>VLOOKUP(A94,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Australian Market - non-life insurance (company, state, public level)</v>
+      <c r="G94" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -5135,9 +3614,8 @@
         <f>E95/D95</f>
         <v>0</v>
       </c>
-      <c r="G95" t="str">
-        <f>VLOOKUP(A95,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Mortality Tables</v>
+      <c r="G95" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -5161,9 +3639,8 @@
         <f>E96/D96</f>
         <v>0</v>
       </c>
-      <c r="G96" t="str">
-        <f>VLOOKUP(A96,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Mortality Tables</v>
+      <c r="G96" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -5187,9 +3664,8 @@
         <f>E97/D97</f>
         <v>0</v>
       </c>
-      <c r="G97" t="str">
-        <f>VLOOKUP(A97,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Mortality Tables</v>
+      <c r="G97" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -5213,9 +3689,8 @@
         <f>E98/D98</f>
         <v>0</v>
       </c>
-      <c r="G98" t="str">
-        <f>VLOOKUP(A98,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Danish reinsurance claim dataset</v>
+      <c r="G98" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -5239,9 +3714,8 @@
         <f>E99/D99</f>
         <v>8.578840096349824E-2</v>
       </c>
-      <c r="G99" t="str">
-        <f>VLOOKUP(A99,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Swedish Buss Insurance dataset</v>
+      <c r="G99" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -5265,9 +3739,8 @@
         <f>E100/D100</f>
         <v>2.8544776119402985E-2</v>
       </c>
-      <c r="G100" t="str">
-        <f>VLOOKUP(A100,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Automobile bodily injury claim dataset</v>
+      <c r="G100" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -5291,9 +3764,8 @@
         <f>E101/D101</f>
         <v>0.25835421888053467</v>
       </c>
-      <c r="G101" t="str">
-        <f>VLOOKUP(A101,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Australian Market - non-life insurance (company, state, public level)</v>
+      <c r="G101" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -5317,9 +3789,8 @@
         <f>E102/D102</f>
         <v>0</v>
       </c>
-      <c r="G102" t="str">
-        <f>VLOOKUP(A102,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Brazilian Automobile Collision Claims</v>
+      <c r="G102" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -5343,9 +3814,8 @@
         <f>E103/D103</f>
         <v>0</v>
       </c>
-      <c r="G103" t="str">
-        <f>VLOOKUP(A103,[1]Sheet1!$A:$B,2,0)</f>
-        <v>US Term Life insurance</v>
+      <c r="G103" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -5369,9 +3839,8 @@
         <f>E104/D104</f>
         <v>0</v>
       </c>
-      <c r="G104" t="str">
-        <f>VLOOKUP(A104,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Portfolio Mortality and Disability Tables</v>
+      <c r="G104" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -5395,9 +3864,8 @@
         <f>E105/D105</f>
         <v>2.4666666666666667E-2</v>
       </c>
-      <c r="G105" t="str">
-        <f>VLOOKUP(A105,[1]Sheet1!$A:$B,2,0)</f>
-        <v>General Liability Claims</v>
+      <c r="G105" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -5421,9 +3889,8 @@
         <f>E106/D106</f>
         <v>3.2986111111111111E-3</v>
       </c>
-      <c r="G106" t="str">
-        <f>VLOOKUP(A106,[1]Sheet1!$A:$B,2,0)</f>
-        <v>US expense dataset</v>
+      <c r="G106" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -5447,9 +3914,8 @@
         <f>E107/D107</f>
         <v>0</v>
       </c>
-      <c r="G107" t="str">
-        <f>VLOOKUP(A107,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Brazilian geospatial dataset for municipalities</v>
+      <c r="G107" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -5473,9 +3939,8 @@
         <f>E108/D108</f>
         <v>0</v>
       </c>
-      <c r="G108" t="str">
-        <f>VLOOKUP(A108,[1]Sheet1!$A:$B,2,0)</f>
-        <v>AON Re Belgian dataset</v>
+      <c r="G108" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -5499,9 +3964,8 @@
         <f>E109/D109</f>
         <v>0.21976985474438784</v>
       </c>
-      <c r="G109" t="str">
-        <f>VLOOKUP(A109,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Australian Market - non-life insurance (company, state, public level)</v>
+      <c r="G109" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -5525,9 +3989,8 @@
         <f>E110/D110</f>
         <v>0</v>
       </c>
-      <c r="G110" t="str">
-        <f>VLOOKUP(A110,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Danish reinsurance claim dataset</v>
+      <c r="G110" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -5551,9 +4014,8 @@
         <f>E111/D111</f>
         <v>3.3134166214014125E-2</v>
       </c>
-      <c r="G111" t="str">
-        <f>VLOOKUP(A111,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Large commercial risks in Asia-Pacific</v>
+      <c r="G111" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -5577,9 +4039,8 @@
         <f>E112/D112</f>
         <v>7.9988193624557266E-2</v>
       </c>
-      <c r="G112" t="str">
-        <f>VLOOKUP(A112,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Property and casualty insurance demand</v>
+      <c r="G112" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -5603,9 +4064,8 @@
         <f>E113/D113</f>
         <v>0</v>
       </c>
-      <c r="G113" t="str">
-        <f>VLOOKUP(A113,[1]Sheet1!$A:$B,2,0)</f>
-        <v>US workers compensation datasets</v>
+      <c r="G113" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -5629,9 +4089,8 @@
         <f>E114/D114</f>
         <v>0</v>
       </c>
-      <c r="G114" t="str">
-        <f>VLOOKUP(A114,[1]Sheet1!$A:$B,2,0)</f>
-        <v>General Liability Claims</v>
+      <c r="G114" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -5655,9 +4114,8 @@
         <f>E115/D115</f>
         <v>0</v>
       </c>
-      <c r="G115" t="str">
-        <f>VLOOKUP(A115,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Federal Reserve interest rates</v>
+      <c r="G115" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -5681,9 +4139,8 @@
         <f>E116/D116</f>
         <v>1.1049723756906077E-2</v>
       </c>
-      <c r="G116" t="str">
-        <f>VLOOKUP(A116,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Australian Market - non-life insurance (company, state, public level)</v>
+      <c r="G116" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -5707,9 +4164,8 @@
         <f>E117/D117</f>
         <v>0.13709677419354838</v>
       </c>
-      <c r="G117" t="str">
-        <f>VLOOKUP(A117,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Normalized Hurricane Damages</v>
+      <c r="G117" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -5733,9 +4189,8 @@
         <f>E118/D118</f>
         <v>0</v>
       </c>
-      <c r="G118" t="str">
-        <f>VLOOKUP(A118,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Disability Tables and Probabilities</v>
+      <c r="G118" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -5759,9 +4214,8 @@
         <f>E119/D119</f>
         <v>9.9514563106796114E-2</v>
       </c>
-      <c r="G119" t="str">
-        <f>VLOOKUP(A119,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Australian catastrophe historic</v>
+      <c r="G119" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -5785,9 +4239,8 @@
         <f>E120/D120</f>
         <v>0</v>
       </c>
-      <c r="G120" t="str">
-        <f>VLOOKUP(A120,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Disability Tables and Probabilities</v>
+      <c r="G120" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -5811,9 +4264,8 @@
         <f>E121/D121</f>
         <v>0</v>
       </c>
-      <c r="G121" t="str">
-        <f>VLOOKUP(A121,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Disability Tables and Probabilities</v>
+      <c r="G121" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -5837,9 +4289,8 @@
         <f>E122/D122</f>
         <v>0</v>
       </c>
-      <c r="G122" t="str">
-        <f>VLOOKUP(A122,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Disability Tables and Probabilities</v>
+      <c r="G122" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -5863,9 +4314,8 @@
         <f>E123/D123</f>
         <v>0</v>
       </c>
-      <c r="G123" t="str">
-        <f>VLOOKUP(A123,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Disability Tables and Probabilities</v>
+      <c r="G123" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -5889,9 +4339,8 @@
         <f>E124/D124</f>
         <v>0</v>
       </c>
-      <c r="G124" t="str">
-        <f>VLOOKUP(A124,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Disability Tables and Probabilities</v>
+      <c r="G124" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -5915,9 +4364,8 @@
         <f>E125/D125</f>
         <v>0</v>
       </c>
-      <c r="G125" t="str">
-        <f>VLOOKUP(A125,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Disability Tables and Probabilities</v>
+      <c r="G125" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -5941,9 +4389,8 @@
         <f>E126/D126</f>
         <v>0</v>
       </c>
-      <c r="G126" t="str">
-        <f>VLOOKUP(A126,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Disability Tables and Probabilities</v>
+      <c r="G126" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -5967,9 +4414,8 @@
         <f>E127/D127</f>
         <v>0</v>
       </c>
-      <c r="G127" t="str">
-        <f>VLOOKUP(A127,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Disability Tables and Probabilities</v>
+      <c r="G127" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -5993,9 +4439,8 @@
         <f>E128/D128</f>
         <v>0</v>
       </c>
-      <c r="G128" t="str">
-        <f>VLOOKUP(A128,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Disability Tables and Probabilities</v>
+      <c r="G128" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -6019,9 +4464,8 @@
         <f>E129/D129</f>
         <v>0</v>
       </c>
-      <c r="G129" t="str">
-        <f>VLOOKUP(A129,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Disability Tables and Probabilities</v>
+      <c r="G129" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -6045,9 +4489,8 @@
         <f>E130/D130</f>
         <v>0</v>
       </c>
-      <c r="G130" t="str">
-        <f>VLOOKUP(A130,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Disability Tables and Probabilities</v>
+      <c r="G130" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -6071,9 +4514,8 @@
         <f>E131/D131</f>
         <v>0</v>
       </c>
-      <c r="G131" t="str">
-        <f>VLOOKUP(A131,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Disability Tables and Probabilities</v>
+      <c r="G131" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -6097,9 +4539,8 @@
         <f>E132/D132</f>
         <v>0.40202702702702703</v>
       </c>
-      <c r="G132" t="str">
-        <f>VLOOKUP(A132,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Disability Tables and Probabilities</v>
+      <c r="G132" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -6123,9 +4564,8 @@
         <f>E133/D133</f>
         <v>4.275862068965517E-2</v>
       </c>
-      <c r="G133" t="str">
-        <f>VLOOKUP(A133,[1]Sheet1!$A:$B,2,0)</f>
-        <v>New Zealand catastrophe historic</v>
+      <c r="G133" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -6149,9 +4589,8 @@
         <f>E134/D134</f>
         <v>0</v>
       </c>
-      <c r="G134" t="str">
-        <f>VLOOKUP(A134,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Normalized Hurricane Damages</v>
+      <c r="G134" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -6175,9 +4614,8 @@
         <f>E135/D135</f>
         <v>0</v>
       </c>
-      <c r="G135" t="str">
-        <f>VLOOKUP(A135,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Descriptive statistics of aggregate claims and premiums for the 41 Brazilian regions</v>
+      <c r="G135" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -6201,9 +4639,8 @@
         <f>E136/D136</f>
         <v>0</v>
       </c>
-      <c r="G136" t="str">
-        <f>VLOOKUP(A136,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Disability Tables and Probabilities</v>
+      <c r="G136" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -6227,9 +4664,8 @@
         <f>E137/D137</f>
         <v>0.21890547263681592</v>
       </c>
-      <c r="G137" t="str">
-        <f>VLOOKUP(A137,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Australian Market - non-life insurance (aggregate level)</v>
+      <c r="G137" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -6253,9 +4689,8 @@
         <f>E138/D138</f>
         <v>0.42499999999999999</v>
       </c>
-      <c r="G138" t="str">
-        <f>VLOOKUP(A138,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Disability Tables and Probabilities</v>
+      <c r="G138" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -6279,9 +4714,8 @@
         <f>E139/D139</f>
         <v>0</v>
       </c>
-      <c r="G139" t="str">
-        <f>VLOOKUP(A139,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Massachusetts Automobile bodily injury claim datasets</v>
+      <c r="G139" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -6305,9 +4739,8 @@
         <f>E140/D140</f>
         <v>6.2172284644194754E-2</v>
       </c>
-      <c r="G140" t="str">
-        <f>VLOOKUP(A140,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Australian Market - non-life insurance (company, state, public level)</v>
+      <c r="G140" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -6331,9 +4764,8 @@
         <f>E141/D141</f>
         <v>1.4981273408239701E-2</v>
       </c>
-      <c r="G141" t="str">
-        <f>VLOOKUP(A141,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Australian Market - non-life insurance (company, state, public level)</v>
+      <c r="G141" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -6357,9 +4789,8 @@
         <f>E142/D142</f>
         <v>0</v>
       </c>
-      <c r="G142" t="str">
-        <f>VLOOKUP(A142,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Automobile claim datasets in Australia</v>
+      <c r="G142" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -6383,9 +4814,8 @@
         <f>E143/D143</f>
         <v>0</v>
       </c>
-      <c r="G143" t="str">
-        <f>VLOOKUP(A143,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Descriptive statistics of aggregate claims and premiums for the 41 Brazilian regions</v>
+      <c r="G143" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -6409,9 +4839,8 @@
         <f>E144/D144</f>
         <v>0.16638655462184873</v>
       </c>
-      <c r="G144" t="str">
-        <f>VLOOKUP(A144,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Australian Market - non-life insurance (aggregate level)</v>
+      <c r="G144" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -6435,9 +4864,8 @@
         <f>E145/D145</f>
         <v>0.10341880341880341</v>
       </c>
-      <c r="G145" t="str">
-        <f>VLOOKUP(A145,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Australian Market - non-life insurance (aggregate level)</v>
+      <c r="G145" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -6461,9 +4889,8 @@
         <f>E146/D146</f>
         <v>5.4563492063492064E-2</v>
       </c>
-      <c r="G146" t="str">
-        <f>VLOOKUP(A146,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Australian Market - non-life insurance (aggregate level)</v>
+      <c r="G146" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -6487,9 +4914,8 @@
         <f>E147/D147</f>
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="G147" t="str">
-        <f>VLOOKUP(A147,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Davis dataset</v>
+      <c r="G147" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -6513,9 +4939,8 @@
         <f>E148/D148</f>
         <v>0</v>
       </c>
-      <c r="G148" t="str">
-        <f>VLOOKUP(A148,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Normalized Hurricane Damages</v>
+      <c r="G148" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -6539,9 +4964,8 @@
         <f>E149/D149</f>
         <v>0.10399159663865547</v>
       </c>
-      <c r="G149" t="str">
-        <f>VLOOKUP(A149,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Australian Market - non-life insurance (aggregate level)</v>
+      <c r="G149" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -6565,9 +4989,8 @@
         <f>E150/D150</f>
         <v>0</v>
       </c>
-      <c r="G150" t="str">
-        <f>VLOOKUP(A150,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Italian MTPL cost</v>
+      <c r="G150" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -6591,9 +5014,8 @@
         <f>E151/D151</f>
         <v>0</v>
       </c>
-      <c r="G151" t="str">
-        <f>VLOOKUP(A151,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Massachusetts Automobile bodily injury claim datasets</v>
+      <c r="G151" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -6617,9 +5039,8 @@
         <f>E152/D152</f>
         <v>5.4320987654320987E-2</v>
       </c>
-      <c r="G152" t="str">
-        <f>VLOOKUP(A152,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Australian Market - non-life insurance (aggregate level)</v>
+      <c r="G152" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -6643,9 +5064,8 @@
         <f>E153/D153</f>
         <v>5.4320987654320987E-2</v>
       </c>
-      <c r="G153" t="str">
-        <f>VLOOKUP(A153,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Australian Market - non-life insurance (aggregate level)</v>
+      <c r="G153" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -6669,9 +5089,8 @@
         <f>E154/D154</f>
         <v>0</v>
       </c>
-      <c r="G154" t="str">
-        <f>VLOOKUP(A154,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Australian Market - non-life insurance (aggregate level)</v>
+      <c r="G154" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -6695,9 +5114,8 @@
         <f>E155/D155</f>
         <v>0</v>
       </c>
-      <c r="G155" t="str">
-        <f>VLOOKUP(A155,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Australian Market - non-life insurance (aggregate level)</v>
+      <c r="G155" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -6721,9 +5139,8 @@
         <f>E156/D156</f>
         <v>0</v>
       </c>
-      <c r="G156" t="str">
-        <f>VLOOKUP(A156,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Secura Re Belgian dataset</v>
+      <c r="G156" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -6747,9 +5164,8 @@
         <f>E157/D157</f>
         <v>7.8125E-3</v>
       </c>
-      <c r="G157" t="str">
-        <f>VLOOKUP(A157,[1]Sheet1!$A:$B,2,0)</f>
-        <v>UK Car Insurance Claims for 1975</v>
+      <c r="G157" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -6773,9 +5189,8 @@
         <f>E158/D158</f>
         <v>0.14444444444444443</v>
       </c>
-      <c r="G158" t="str">
-        <f>VLOOKUP(A158,[1]Sheet1!$A:$B,2,0)</f>
-        <v>US Medical claim incremental triangles</v>
+      <c r="G158" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -6799,9 +5214,8 @@
         <f>E159/D159</f>
         <v>0.10625</v>
       </c>
-      <c r="G159" t="str">
-        <f>VLOOKUP(A159,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Australian Market - non-life insurance (LLoyds insurance business)</v>
+      <c r="G159" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -6825,9 +5239,8 @@
         <f>E160/D160</f>
         <v>0.45238095238095238</v>
       </c>
-      <c r="G160" t="str">
-        <f>VLOOKUP(A160,[1]Sheet1!$A:$B,2,0)</f>
-        <v>US workers compensation datasets</v>
+      <c r="G160" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -6851,9 +5264,8 @@
         <f>E161/D161</f>
         <v>0.234375</v>
       </c>
-      <c r="G161" t="str">
-        <f>VLOOKUP(A161,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Australian Market - non-life insurance (LLoyds insurance business)</v>
+      <c r="G161" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -6877,9 +5289,8 @@
         <f>E162/D162</f>
         <v>0</v>
       </c>
-      <c r="G162" t="str">
-        <f>VLOOKUP(A162,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Mortality Tables</v>
+      <c r="G162" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -6903,9 +5314,8 @@
         <f>E163/D163</f>
         <v>0</v>
       </c>
-      <c r="G163" t="str">
-        <f>VLOOKUP(A163,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Mortality Tables</v>
+      <c r="G163" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -6929,9 +5339,8 @@
         <f>E164/D164</f>
         <v>0</v>
       </c>
-      <c r="G164" t="str">
-        <f>VLOOKUP(A164,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Mortality Tables</v>
+      <c r="G164" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -6955,9 +5364,8 @@
         <f>E165/D165</f>
         <v>0</v>
       </c>
-      <c r="G165" t="str">
-        <f>VLOOKUP(A165,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Mortality Tables</v>
+      <c r="G165" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -6981,9 +5389,8 @@
         <f>E166/D166</f>
         <v>0</v>
       </c>
-      <c r="G166" t="str">
-        <f>VLOOKUP(A166,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Mortality Tables</v>
+      <c r="G166" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -7007,9 +5414,8 @@
         <f>E167/D167</f>
         <v>0</v>
       </c>
-      <c r="G167" t="str">
-        <f>VLOOKUP(A167,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Mortality Tables</v>
+      <c r="G167" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -7033,9 +5439,8 @@
         <f>E168/D168</f>
         <v>0</v>
       </c>
-      <c r="G168" t="str">
-        <f>VLOOKUP(A168,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Mortality Tables</v>
+      <c r="G168" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -7059,9 +5464,8 @@
         <f>E169/D169</f>
         <v>0</v>
       </c>
-      <c r="G169" t="str">
-        <f>VLOOKUP(A169,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Mortality Tables</v>
+      <c r="G169" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -7085,9 +5489,8 @@
         <f>E170/D170</f>
         <v>0</v>
       </c>
-      <c r="G170" t="str">
-        <f>VLOOKUP(A170,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Mortality Tables</v>
+      <c r="G170" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -7111,9 +5514,8 @@
         <f>E171/D171</f>
         <v>0</v>
       </c>
-      <c r="G171" t="str">
-        <f>VLOOKUP(A171,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Normalized Hurricane Damages</v>
+      <c r="G171" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -7137,9 +5539,8 @@
         <f>E172/D172</f>
         <v>0</v>
       </c>
-      <c r="G172" t="str">
-        <f>VLOOKUP(A172,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Norberg's credibility dataset</v>
+      <c r="G172" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -7163,9 +5564,8 @@
         <f>E173/D173</f>
         <v>0.4642857142857143</v>
       </c>
-      <c r="G173" t="str">
-        <f>VLOOKUP(A173,[1]Sheet1!$A:$B,2,0)</f>
-        <v>US Automobile triangles</v>
+      <c r="G173" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -7189,9 +5589,8 @@
         <f>E174/D174</f>
         <v>0.4642857142857143</v>
       </c>
-      <c r="G174" t="str">
-        <f>VLOOKUP(A174,[1]Sheet1!$A:$B,2,0)</f>
-        <v>US general liability triangles</v>
+      <c r="G174" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -7215,9 +5614,8 @@
         <f>E175/D175</f>
         <v>5.9171597633136092E-2</v>
       </c>
-      <c r="G175" t="str">
-        <f>VLOOKUP(A175,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Australian Market - non-life insurance (company, state, public level)</v>
+      <c r="G175" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -7241,9 +5639,8 @@
         <f>E176/D176</f>
         <v>0</v>
       </c>
-      <c r="G176" t="str">
-        <f>VLOOKUP(A176,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Australian Market - non-life insurance (LLoyds insurance business)</v>
+      <c r="G176" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -7267,9 +5664,8 @@
         <f>E177/D177</f>
         <v>0</v>
       </c>
-      <c r="G177" t="str">
-        <f>VLOOKUP(A177,[1]Sheet1!$A:$B,2,0)</f>
-        <v>UK Automobile Collision Claims</v>
+      <c r="G177" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -7293,9 +5689,8 @@
         <f>E178/D178</f>
         <v>0</v>
       </c>
-      <c r="G178" t="str">
-        <f>VLOOKUP(A178,[1]Sheet1!$A:$B,2,0)</f>
-        <v>A simulated with linear model factor</v>
+      <c r="G178" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -7319,9 +5714,8 @@
         <f>E179/D179</f>
         <v>0</v>
       </c>
-      <c r="G179" t="str">
-        <f>VLOOKUP(A179,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Australian Market - non-life insurance (company, state, public level)</v>
+      <c r="G179" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -7345,9 +5739,8 @@
         <f>E180/D180</f>
         <v>0.45</v>
       </c>
-      <c r="G180" t="str">
-        <f>VLOOKUP(A180,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Australian private motor triangles</v>
+      <c r="G180" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -7371,9 +5764,8 @@
         <f>E181/D181</f>
         <v>0.45</v>
       </c>
-      <c r="G181" t="str">
-        <f>VLOOKUP(A181,[1]Sheet1!$A:$B,2,0)</f>
-        <v>US Automobile triangles</v>
+      <c r="G181" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -7397,9 +5789,8 @@
         <f>E182/D182</f>
         <v>0.45</v>
       </c>
-      <c r="G182" t="str">
-        <f>VLOOKUP(A182,[1]Sheet1!$A:$B,2,0)</f>
-        <v>US general liability triangles</v>
+      <c r="G182" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -7423,9 +5814,8 @@
         <f>E183/D183</f>
         <v>6.25E-2</v>
       </c>
-      <c r="G183" t="str">
-        <f>VLOOKUP(A183,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Australian Market - non-life insurance (LLoyds insurance business)</v>
+      <c r="G183" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -7449,9 +5839,8 @@
         <f>E184/D184</f>
         <v>0</v>
       </c>
-      <c r="G184" t="str">
-        <f>VLOOKUP(A184,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French geospatial dataset for departments</v>
+      <c r="G184" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -7475,9 +5864,8 @@
         <f>E185/D185</f>
         <v>0</v>
       </c>
-      <c r="G185" t="str">
-        <f>VLOOKUP(A185,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Australian Market - non-life insurance (company, state, public level)</v>
+      <c r="G185" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -7501,9 +5889,8 @@
         <f>E186/D186</f>
         <v>0</v>
       </c>
-      <c r="G186" t="str">
-        <f>VLOOKUP(A186,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Australian Market - non-life insurance (company, state, public level)</v>
+      <c r="G186" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -7527,9 +5914,8 @@
         <f>E187/D187</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="G187" t="str">
-        <f>VLOOKUP(A187,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Singapore general liability triangles</v>
+      <c r="G187" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -7553,9 +5939,8 @@
         <f>E188/D188</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="G188" t="str">
-        <f>VLOOKUP(A188,[1]Sheet1!$A:$B,2,0)</f>
-        <v>French Mortality Tables</v>
+      <c r="G188" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -7579,9 +5964,8 @@
         <f>E189/D189</f>
         <v>0</v>
       </c>
-      <c r="G189" t="str">
-        <f>VLOOKUP(A189,[1]Sheet1!$A:$B,2,0)</f>
-        <v>California earthquake loss ratios</v>
+      <c r="G189" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -7605,9 +5989,8 @@
         <f>E190/D190</f>
         <v>0</v>
       </c>
-      <c r="G190" t="str">
-        <f>VLOOKUP(A190,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Normalized Hurricane Damages in US between 1949 and 1980</v>
+      <c r="G190" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -7631,9 +6014,8 @@
         <f>E191/D191</f>
         <v>0.4</v>
       </c>
-      <c r="G191" t="str">
-        <f>VLOOKUP(A191,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Singapore general liability triangles</v>
+      <c r="G191" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -7657,9 +6039,8 @@
         <f>E192/D192</f>
         <v>0</v>
       </c>
-      <c r="G192" t="str">
-        <f>VLOOKUP(A192,[1]Sheet1!$A:$B,2,0)</f>
-        <v>Warranty Automobile claims</v>
+      <c r="G192" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
